--- a/natmiOut/OldD2/LR-pairs_lrc2p/Fn1-Tshr.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Fn1-Tshr.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H2">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I2">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J2">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.68981440642683</v>
+        <v>0.7262925</v>
       </c>
       <c r="N2">
-        <v>0.68981440642683</v>
+        <v>1.452585</v>
       </c>
       <c r="O2">
-        <v>0.3078804573614734</v>
+        <v>0.2952325527432663</v>
       </c>
       <c r="P2">
-        <v>0.3078804573614734</v>
+        <v>0.2455349483544712</v>
       </c>
       <c r="Q2">
-        <v>27.25330630672467</v>
+        <v>29.58549266748375</v>
       </c>
       <c r="R2">
-        <v>27.25330630672467</v>
+        <v>118.341970669935</v>
       </c>
       <c r="S2">
-        <v>0.0210279721306035</v>
+        <v>0.01643817017802245</v>
       </c>
       <c r="T2">
-        <v>0.0210279721306035</v>
+        <v>0.009395804512936739</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H3">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I3">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J3">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.292205734237438</v>
+        <v>0.4083613333333334</v>
       </c>
       <c r="N3">
-        <v>0.292205734237438</v>
+        <v>1.225084</v>
       </c>
       <c r="O3">
-        <v>0.130418318699191</v>
+        <v>0.1659958747772335</v>
       </c>
       <c r="P3">
-        <v>0.130418318699191</v>
+        <v>0.2070797486342548</v>
       </c>
       <c r="Q3">
-        <v>11.5445144455663</v>
+        <v>16.634580741254</v>
       </c>
       <c r="R3">
-        <v>11.5445144455663</v>
+        <v>99.807484447524</v>
       </c>
       <c r="S3">
-        <v>0.008907459714816985</v>
+        <v>0.009242437573646272</v>
       </c>
       <c r="T3">
-        <v>0.008907459714816985</v>
+        <v>0.00792425212701948</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H4">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I4">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J4">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.102307673595621</v>
+        <v>0.1071516666666667</v>
       </c>
       <c r="N4">
-        <v>0.102307673595621</v>
+        <v>0.321455</v>
       </c>
       <c r="O4">
-        <v>0.0456623303960371</v>
+        <v>0.04355636342203116</v>
       </c>
       <c r="P4">
-        <v>0.0456623303960371</v>
+        <v>0.05433653577813798</v>
       </c>
       <c r="Q4">
-        <v>4.041989178614841</v>
+        <v>4.364818373417501</v>
       </c>
       <c r="R4">
-        <v>4.041989178614841</v>
+        <v>26.188910240505</v>
       </c>
       <c r="S4">
-        <v>0.003118698144127253</v>
+        <v>0.002425162495172954</v>
       </c>
       <c r="T4">
-        <v>0.003118698144127253</v>
+        <v>0.002079278210711304</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H5">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I5">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J5">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.272288358326865</v>
+        <v>0.2805203333333333</v>
       </c>
       <c r="N5">
-        <v>0.272288358326865</v>
+        <v>0.841561</v>
       </c>
       <c r="O5">
-        <v>0.1215287235448195</v>
+        <v>0.1140294497139816</v>
       </c>
       <c r="P5">
-        <v>0.1215287235448195</v>
+        <v>0.1422516662860605</v>
       </c>
       <c r="Q5">
-        <v>10.75761532971752</v>
+        <v>11.4269832951785</v>
       </c>
       <c r="R5">
-        <v>10.75761532971752</v>
+        <v>68.561899771071</v>
       </c>
       <c r="S5">
-        <v>0.008300307962606213</v>
+        <v>0.006349013624302766</v>
       </c>
       <c r="T5">
-        <v>0.008300307962606213</v>
+        <v>0.00544349737998916</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H6">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I6">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J6">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.197820158636817</v>
+        <v>0.1998293333333333</v>
       </c>
       <c r="N6">
-        <v>0.197820158636817</v>
+        <v>0.599488</v>
       </c>
       <c r="O6">
-        <v>0.08829180769346945</v>
+        <v>0.08122915243236724</v>
       </c>
       <c r="P6">
-        <v>0.08829180769346945</v>
+        <v>0.1013333162046457</v>
       </c>
       <c r="Q6">
-        <v>7.815512878167036</v>
+        <v>8.140039000927999</v>
       </c>
       <c r="R6">
-        <v>7.815512878167036</v>
+        <v>48.840234005568</v>
       </c>
       <c r="S6">
-        <v>0.006030255013422635</v>
+        <v>0.00452273510726616</v>
       </c>
       <c r="T6">
-        <v>0.006030255013422635</v>
+        <v>0.00387768843534211</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H7">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I7">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J7">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.686090437959895</v>
+        <v>0.7379140000000001</v>
       </c>
       <c r="N7">
-        <v>0.686090437959895</v>
+        <v>1.475828</v>
       </c>
       <c r="O7">
-        <v>0.3062183623050095</v>
+        <v>0.29995660691112</v>
       </c>
       <c r="P7">
-        <v>0.3062183623050095</v>
+        <v>0.2494637847424299</v>
       </c>
       <c r="Q7">
-        <v>27.10617911952707</v>
+        <v>30.058893952827</v>
       </c>
       <c r="R7">
-        <v>27.10617911952707</v>
+        <v>120.235575811308</v>
       </c>
       <c r="S7">
-        <v>0.02091445245863321</v>
+        <v>0.01670119945992181</v>
       </c>
       <c r="T7">
-        <v>0.02091445245863321</v>
+        <v>0.009546147993211001</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>330.770233336439</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H8">
-        <v>330.770233336439</v>
+        <v>1051.17572</v>
       </c>
       <c r="I8">
-        <v>0.5718139577408378</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J8">
-        <v>0.5718139577408378</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.68981440642683</v>
+        <v>0.7262925</v>
       </c>
       <c r="N8">
-        <v>0.68981440642683</v>
+        <v>1.452585</v>
       </c>
       <c r="O8">
-        <v>0.3078804573614734</v>
+        <v>0.2952325527432663</v>
       </c>
       <c r="P8">
-        <v>0.3078804573614734</v>
+        <v>0.2455349483544712</v>
       </c>
       <c r="Q8">
-        <v>228.1700721726397</v>
+        <v>254.4870138727</v>
       </c>
       <c r="R8">
-        <v>228.1700721726397</v>
+        <v>1526.9220832362</v>
       </c>
       <c r="S8">
-        <v>0.1760503428349234</v>
+        <v>0.1413970316179289</v>
       </c>
       <c r="T8">
-        <v>0.1760503428349234</v>
+        <v>0.1212305433089957</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>330.770233336439</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H9">
-        <v>330.770233336439</v>
+        <v>1051.17572</v>
       </c>
       <c r="I9">
-        <v>0.5718139577408378</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J9">
-        <v>0.5718139577408378</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.292205734237438</v>
+        <v>0.4083613333333334</v>
       </c>
       <c r="N9">
-        <v>0.292205734237438</v>
+        <v>1.225084</v>
       </c>
       <c r="O9">
-        <v>0.130418318699191</v>
+        <v>0.1659958747772335</v>
       </c>
       <c r="P9">
-        <v>0.130418318699191</v>
+        <v>0.2070797486342548</v>
       </c>
       <c r="Q9">
-        <v>96.65295889596285</v>
+        <v>143.0865061956089</v>
       </c>
       <c r="R9">
-        <v>96.65295889596285</v>
+        <v>1287.77855576048</v>
       </c>
       <c r="S9">
-        <v>0.07457501497729031</v>
+        <v>0.07950113812392794</v>
       </c>
       <c r="T9">
-        <v>0.07457501497729031</v>
+        <v>0.1022436545325456</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>330.770233336439</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H10">
-        <v>330.770233336439</v>
+        <v>1051.17572</v>
       </c>
       <c r="I10">
-        <v>0.5718139577408378</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J10">
-        <v>0.5718139577408378</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.102307673595621</v>
+        <v>0.1071516666666667</v>
       </c>
       <c r="N10">
-        <v>0.102307673595621</v>
+        <v>0.321455</v>
       </c>
       <c r="O10">
-        <v>0.0456623303960371</v>
+        <v>0.04355636342203116</v>
       </c>
       <c r="P10">
-        <v>0.0456623303960371</v>
+        <v>0.05433653577813798</v>
       </c>
       <c r="Q10">
-        <v>33.8403330673318</v>
+        <v>37.54507678584445</v>
       </c>
       <c r="R10">
-        <v>33.8403330673318</v>
+        <v>337.9056910726</v>
       </c>
       <c r="S10">
-        <v>0.02611035786342773</v>
+        <v>0.02086064168304154</v>
       </c>
       <c r="T10">
-        <v>0.02611035786342773</v>
+        <v>0.02682814726807259</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>330.770233336439</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H11">
-        <v>330.770233336439</v>
+        <v>1051.17572</v>
       </c>
       <c r="I11">
-        <v>0.5718139577408378</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J11">
-        <v>0.5718139577408378</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.272288358326865</v>
+        <v>0.2805203333333333</v>
       </c>
       <c r="N11">
-        <v>0.272288358326865</v>
+        <v>0.841561</v>
       </c>
       <c r="O11">
-        <v>0.1215287235448195</v>
+        <v>0.1140294497139816</v>
       </c>
       <c r="P11">
-        <v>0.1215287235448195</v>
+        <v>0.1422516662860605</v>
       </c>
       <c r="Q11">
-        <v>90.06488381857304</v>
+        <v>98.29205445543555</v>
       </c>
       <c r="R11">
-        <v>90.06488381857304</v>
+        <v>884.62849009892</v>
       </c>
       <c r="S11">
-        <v>0.06949182038935535</v>
+        <v>0.05461262844075256</v>
       </c>
       <c r="T11">
-        <v>0.06949182038935535</v>
+        <v>0.07023540602282258</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>330.770233336439</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H12">
-        <v>330.770233336439</v>
+        <v>1051.17572</v>
       </c>
       <c r="I12">
-        <v>0.5718139577408378</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J12">
-        <v>0.5718139577408378</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.197820158636817</v>
+        <v>0.1998293333333333</v>
       </c>
       <c r="N12">
-        <v>0.197820158636817</v>
+        <v>0.599488</v>
       </c>
       <c r="O12">
-        <v>0.08829180769346945</v>
+        <v>0.08122915243236724</v>
       </c>
       <c r="P12">
-        <v>0.08829180769346945</v>
+        <v>0.1013333162046457</v>
       </c>
       <c r="Q12">
-        <v>65.43302003095134</v>
+        <v>70.01858111459556</v>
       </c>
       <c r="R12">
-        <v>65.43302003095134</v>
+        <v>630.16723003136</v>
       </c>
       <c r="S12">
-        <v>0.05048648799329571</v>
+        <v>0.0389034370636114</v>
       </c>
       <c r="T12">
-        <v>0.05048648799329571</v>
+        <v>0.05003236020420369</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>330.770233336439</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H13">
-        <v>330.770233336439</v>
+        <v>1051.17572</v>
       </c>
       <c r="I13">
-        <v>0.5718139577408378</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J13">
-        <v>0.5718139577408378</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.686090437959895</v>
+        <v>0.7379140000000001</v>
       </c>
       <c r="N13">
-        <v>0.686090437959895</v>
+        <v>1.475828</v>
       </c>
       <c r="O13">
-        <v>0.3062183623050095</v>
+        <v>0.29995660691112</v>
       </c>
       <c r="P13">
-        <v>0.3062183623050095</v>
+        <v>0.2494637847424299</v>
       </c>
       <c r="Q13">
-        <v>226.9382942538941</v>
+        <v>258.5590934160267</v>
       </c>
       <c r="R13">
-        <v>226.9382942538941</v>
+        <v>1551.35456049616</v>
       </c>
       <c r="S13">
-        <v>0.1750999336825452</v>
+        <v>0.1436595437641341</v>
       </c>
       <c r="T13">
-        <v>0.1750999336825452</v>
+        <v>0.1231703688738549</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>124.704849261112</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H14">
-        <v>124.704849261112</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I14">
-        <v>0.2155815917478311</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J14">
-        <v>0.2155815917478311</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.68981440642683</v>
+        <v>0.7262925</v>
       </c>
       <c r="N14">
-        <v>0.68981440642683</v>
+        <v>1.452585</v>
       </c>
       <c r="O14">
-        <v>0.3078804573614734</v>
+        <v>0.2952325527432663</v>
       </c>
       <c r="P14">
-        <v>0.3078804573614734</v>
+        <v>0.2455349483544712</v>
       </c>
       <c r="Q14">
-        <v>86.02320157160129</v>
+        <v>177.090958515725</v>
       </c>
       <c r="R14">
-        <v>86.02320157160129</v>
+        <v>1062.54575109435</v>
       </c>
       <c r="S14">
-        <v>0.0663733590660367</v>
+        <v>0.09839455255277947</v>
       </c>
       <c r="T14">
-        <v>0.0663733590660367</v>
+        <v>0.08436121273642412</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>124.704849261112</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H15">
-        <v>124.704849261112</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I15">
-        <v>0.2155815917478311</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J15">
-        <v>0.2155815917478311</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.292205734237438</v>
+        <v>0.4083613333333334</v>
       </c>
       <c r="N15">
-        <v>0.292205734237438</v>
+        <v>1.225084</v>
       </c>
       <c r="O15">
-        <v>0.130418318699191</v>
+        <v>0.1659958747772335</v>
       </c>
       <c r="P15">
-        <v>0.130418318699191</v>
+        <v>0.2070797486342548</v>
       </c>
       <c r="Q15">
-        <v>36.43947204131226</v>
+        <v>99.57021439813779</v>
       </c>
       <c r="R15">
-        <v>36.43947204131226</v>
+        <v>896.1319295832401</v>
       </c>
       <c r="S15">
-        <v>0.02811578873824752</v>
+        <v>0.05532279442950294</v>
       </c>
       <c r="T15">
-        <v>0.02811578873824752</v>
+        <v>0.07114872585355722</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>124.704849261112</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H16">
-        <v>124.704849261112</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I16">
-        <v>0.2155815917478311</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J16">
-        <v>0.2155815917478311</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.102307673595621</v>
+        <v>0.1071516666666667</v>
       </c>
       <c r="N16">
-        <v>0.102307673595621</v>
+        <v>0.321455</v>
       </c>
       <c r="O16">
-        <v>0.0456623303960371</v>
+        <v>0.04355636342203116</v>
       </c>
       <c r="P16">
-        <v>0.0456623303960371</v>
+        <v>0.05433653577813798</v>
       </c>
       <c r="Q16">
-        <v>12.75826301399696</v>
+        <v>26.1266519433389</v>
       </c>
       <c r="R16">
-        <v>12.75826301399696</v>
+        <v>235.1398674900501</v>
       </c>
       <c r="S16">
-        <v>0.009843957869693051</v>
+        <v>0.01451638327113559</v>
       </c>
       <c r="T16">
-        <v>0.009843957869693051</v>
+        <v>0.01866901671171547</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>124.704849261112</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H17">
-        <v>124.704849261112</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I17">
-        <v>0.2155815917478311</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J17">
-        <v>0.2155815917478311</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.272288358326865</v>
+        <v>0.2805203333333333</v>
       </c>
       <c r="N17">
-        <v>0.272288358326865</v>
+        <v>0.841561</v>
       </c>
       <c r="O17">
-        <v>0.1215287235448195</v>
+        <v>0.1140294497139816</v>
       </c>
       <c r="P17">
-        <v>0.1215287235448195</v>
+        <v>0.1422516662860605</v>
       </c>
       <c r="Q17">
-        <v>33.95567868070735</v>
+        <v>68.39890913530111</v>
       </c>
       <c r="R17">
-        <v>33.95567868070735</v>
+        <v>615.5901822177101</v>
       </c>
       <c r="S17">
-        <v>0.0261993556648743</v>
+        <v>0.03800352155679686</v>
       </c>
       <c r="T17">
-        <v>0.0261993556648743</v>
+        <v>0.04887501010383408</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>124.704849261112</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H18">
-        <v>124.704849261112</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I18">
-        <v>0.2155815917478311</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J18">
-        <v>0.2155815917478311</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.197820158636817</v>
+        <v>0.1998293333333333</v>
       </c>
       <c r="N18">
-        <v>0.197820158636817</v>
+        <v>0.599488</v>
       </c>
       <c r="O18">
-        <v>0.08829180769346945</v>
+        <v>0.08122915243236724</v>
       </c>
       <c r="P18">
-        <v>0.08829180769346945</v>
+        <v>0.1013333162046457</v>
       </c>
       <c r="Q18">
-        <v>24.66913306361353</v>
+        <v>48.72412723463111</v>
       </c>
       <c r="R18">
-        <v>24.66913306361353</v>
+        <v>438.5171451116801</v>
       </c>
       <c r="S18">
-        <v>0.01903408844085155</v>
+        <v>0.02707189987539945</v>
       </c>
       <c r="T18">
-        <v>0.01903408844085155</v>
+        <v>0.03481623085804509</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>124.704849261112</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H19">
-        <v>124.704849261112</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I19">
-        <v>0.2155815917478311</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J19">
-        <v>0.2155815917478311</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.686090437959895</v>
+        <v>0.7379140000000001</v>
       </c>
       <c r="N19">
-        <v>0.686090437959895</v>
+        <v>1.475828</v>
       </c>
       <c r="O19">
-        <v>0.3062183623050095</v>
+        <v>0.29995660691112</v>
       </c>
       <c r="P19">
-        <v>0.3062183623050095</v>
+        <v>0.2494637847424299</v>
       </c>
       <c r="Q19">
-        <v>85.55880464527903</v>
+        <v>179.9246137915134</v>
       </c>
       <c r="R19">
-        <v>85.55880464527903</v>
+        <v>1079.54768274908</v>
       </c>
       <c r="S19">
-        <v>0.066015041968128</v>
+        <v>0.09996897648320989</v>
       </c>
       <c r="T19">
-        <v>0.066015041968128</v>
+        <v>0.08571108738584754</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>39.3596523797394</v>
+        <v>48.737294</v>
       </c>
       <c r="H20">
-        <v>39.3596523797394</v>
+        <v>146.211882</v>
       </c>
       <c r="I20">
-        <v>0.06804239418868824</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J20">
-        <v>0.06804239418868824</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.68981440642683</v>
+        <v>0.7262925</v>
       </c>
       <c r="N20">
-        <v>0.68981440642683</v>
+        <v>1.452585</v>
       </c>
       <c r="O20">
-        <v>0.3078804573614734</v>
+        <v>0.2952325527432663</v>
       </c>
       <c r="P20">
-        <v>0.3078804573614734</v>
+        <v>0.2455349483544712</v>
       </c>
       <c r="Q20">
-        <v>27.1508552434963</v>
+        <v>35.397531102495</v>
       </c>
       <c r="R20">
-        <v>27.1508552434963</v>
+        <v>212.38518661497</v>
       </c>
       <c r="S20">
-        <v>0.020948923442783</v>
+        <v>0.01966743115230143</v>
       </c>
       <c r="T20">
-        <v>0.020948923442783</v>
+        <v>0.01686240041112324</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>39.3596523797394</v>
+        <v>48.737294</v>
       </c>
       <c r="H21">
-        <v>39.3596523797394</v>
+        <v>146.211882</v>
       </c>
       <c r="I21">
-        <v>0.06804239418868824</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J21">
-        <v>0.06804239418868824</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.292205734237438</v>
+        <v>0.4083613333333334</v>
       </c>
       <c r="N21">
-        <v>0.292205734237438</v>
+        <v>1.225084</v>
       </c>
       <c r="O21">
-        <v>0.130418318699191</v>
+        <v>0.1659958747772335</v>
       </c>
       <c r="P21">
-        <v>0.130418318699191</v>
+        <v>0.2070797486342548</v>
       </c>
       <c r="Q21">
-        <v>11.50111612295208</v>
+        <v>19.90242636089867</v>
       </c>
       <c r="R21">
-        <v>11.50111612295208</v>
+        <v>179.121837248088</v>
       </c>
       <c r="S21">
-        <v>0.008873974650356324</v>
+        <v>0.01105810456337543</v>
       </c>
       <c r="T21">
-        <v>0.008873974650356324</v>
+        <v>0.01422144449051898</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>39.3596523797394</v>
+        <v>48.737294</v>
       </c>
       <c r="H22">
-        <v>39.3596523797394</v>
+        <v>146.211882</v>
       </c>
       <c r="I22">
-        <v>0.06804239418868824</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J22">
-        <v>0.06804239418868824</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.102307673595621</v>
+        <v>0.1071516666666667</v>
       </c>
       <c r="N22">
-        <v>0.102307673595621</v>
+        <v>0.321455</v>
       </c>
       <c r="O22">
-        <v>0.0456623303960371</v>
+        <v>0.04355636342203116</v>
       </c>
       <c r="P22">
-        <v>0.0456623303960371</v>
+        <v>0.05433653577813798</v>
       </c>
       <c r="Q22">
-        <v>4.026794468503486</v>
+        <v>5.222282280923334</v>
       </c>
       <c r="R22">
-        <v>4.026794468503486</v>
+        <v>47.00054052831</v>
       </c>
       <c r="S22">
-        <v>0.003106974284381277</v>
+        <v>0.002901583077094999</v>
       </c>
       <c r="T22">
-        <v>0.003106974284381277</v>
+        <v>0.003731625291571662</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>39.3596523797394</v>
+        <v>48.737294</v>
       </c>
       <c r="H23">
-        <v>39.3596523797394</v>
+        <v>146.211882</v>
       </c>
       <c r="I23">
-        <v>0.06804239418868824</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J23">
-        <v>0.06804239418868824</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.272288358326865</v>
+        <v>0.2805203333333333</v>
       </c>
       <c r="N23">
-        <v>0.272288358326865</v>
+        <v>0.841561</v>
       </c>
       <c r="O23">
-        <v>0.1215287235448195</v>
+        <v>0.1140294497139816</v>
       </c>
       <c r="P23">
-        <v>0.1215287235448195</v>
+        <v>0.1422516662860605</v>
       </c>
       <c r="Q23">
-        <v>10.71717513079533</v>
+        <v>13.67180195864467</v>
       </c>
       <c r="R23">
-        <v>10.71717513079533</v>
+        <v>123.046217627802</v>
       </c>
       <c r="S23">
-        <v>0.008269105312684722</v>
+        <v>0.007596270569576282</v>
       </c>
       <c r="T23">
-        <v>0.008269105312684722</v>
+        <v>0.009769299939339376</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>39.3596523797394</v>
+        <v>48.737294</v>
       </c>
       <c r="H24">
-        <v>39.3596523797394</v>
+        <v>146.211882</v>
       </c>
       <c r="I24">
-        <v>0.06804239418868824</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J24">
-        <v>0.06804239418868824</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.197820158636817</v>
+        <v>0.1998293333333333</v>
       </c>
       <c r="N24">
-        <v>0.197820158636817</v>
+        <v>0.599488</v>
       </c>
       <c r="O24">
-        <v>0.08829180769346945</v>
+        <v>0.08122915243236724</v>
       </c>
       <c r="P24">
-        <v>0.08829180769346945</v>
+        <v>0.1013333162046457</v>
       </c>
       <c r="Q24">
-        <v>7.786132677650021</v>
+        <v>9.739140968490666</v>
       </c>
       <c r="R24">
-        <v>7.786132677650021</v>
+        <v>87.652268716416</v>
       </c>
       <c r="S24">
-        <v>0.006007585982710905</v>
+        <v>0.005411221588469696</v>
       </c>
       <c r="T24">
-        <v>0.006007585982710905</v>
+        <v>0.006959184280206287</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>39.3596523797394</v>
+        <v>48.737294</v>
       </c>
       <c r="H25">
-        <v>39.3596523797394</v>
+        <v>146.211882</v>
       </c>
       <c r="I25">
-        <v>0.06804239418868824</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J25">
-        <v>0.06804239418868824</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.686090437959895</v>
+        <v>0.7379140000000001</v>
       </c>
       <c r="N25">
-        <v>0.686090437959895</v>
+        <v>1.475828</v>
       </c>
       <c r="O25">
-        <v>0.3062183623050095</v>
+        <v>0.29995660691112</v>
       </c>
       <c r="P25">
-        <v>0.3062183623050095</v>
+        <v>0.2494637847424299</v>
       </c>
       <c r="Q25">
-        <v>27.00428113916463</v>
+        <v>35.963931564716</v>
       </c>
       <c r="R25">
-        <v>27.00428113916463</v>
+        <v>215.783589388296</v>
       </c>
       <c r="S25">
-        <v>0.02083583051577201</v>
+        <v>0.019982132255695</v>
       </c>
       <c r="T25">
-        <v>0.02083583051577201</v>
+        <v>0.01713221785571736</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>22.4013115348323</v>
+        <v>22.832077</v>
       </c>
       <c r="H26">
-        <v>22.4013115348323</v>
+        <v>68.49623099999999</v>
       </c>
       <c r="I26">
-        <v>0.03872592306179204</v>
+        <v>0.03120810544755168</v>
       </c>
       <c r="J26">
-        <v>0.03872592306179204</v>
+        <v>0.03217289111905</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.68981440642683</v>
+        <v>0.7262925</v>
       </c>
       <c r="N26">
-        <v>0.68981440642683</v>
+        <v>1.452585</v>
       </c>
       <c r="O26">
-        <v>0.3078804573614734</v>
+        <v>0.2952325527432663</v>
       </c>
       <c r="P26">
-        <v>0.3078804573614734</v>
+        <v>0.2455349483544712</v>
       </c>
       <c r="Q26">
-        <v>15.45274741958284</v>
+        <v>16.5827662845225</v>
       </c>
       <c r="R26">
-        <v>15.45274741958284</v>
+        <v>99.496597707135</v>
       </c>
       <c r="S26">
-        <v>0.01192295490400976</v>
+        <v>0.00921364863756172</v>
       </c>
       <c r="T26">
-        <v>0.01192295490400976</v>
+        <v>0.007899569159329968</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>22.4013115348323</v>
+        <v>22.832077</v>
       </c>
       <c r="H27">
-        <v>22.4013115348323</v>
+        <v>68.49623099999999</v>
       </c>
       <c r="I27">
-        <v>0.03872592306179204</v>
+        <v>0.03120810544755168</v>
       </c>
       <c r="J27">
-        <v>0.03872592306179204</v>
+        <v>0.03217289111905</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.292205734237438</v>
+        <v>0.4083613333333334</v>
       </c>
       <c r="N27">
-        <v>0.292205734237438</v>
+        <v>1.225084</v>
       </c>
       <c r="O27">
-        <v>0.130418318699191</v>
+        <v>0.1659958747772335</v>
       </c>
       <c r="P27">
-        <v>0.130418318699191</v>
+        <v>0.2070797486342548</v>
       </c>
       <c r="Q27">
-        <v>6.545791684917261</v>
+        <v>9.323737406489332</v>
       </c>
       <c r="R27">
-        <v>6.545791684917261</v>
+        <v>83.913636658404</v>
       </c>
       <c r="S27">
-        <v>0.005050569775793145</v>
+        <v>0.005180416763906489</v>
       </c>
       <c r="T27">
-        <v>0.005050569775793145</v>
+        <v>0.006662354205770124</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>22.4013115348323</v>
+        <v>22.832077</v>
       </c>
       <c r="H28">
-        <v>22.4013115348323</v>
+        <v>68.49623099999999</v>
       </c>
       <c r="I28">
-        <v>0.03872592306179204</v>
+        <v>0.03120810544755168</v>
       </c>
       <c r="J28">
-        <v>0.03872592306179204</v>
+        <v>0.03217289111905</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.102307673595621</v>
+        <v>0.1071516666666667</v>
       </c>
       <c r="N28">
-        <v>0.102307673595621</v>
+        <v>0.321455</v>
       </c>
       <c r="O28">
-        <v>0.0456623303960371</v>
+        <v>0.04355636342203116</v>
       </c>
       <c r="P28">
-        <v>0.0456623303960371</v>
+        <v>0.05433653577813798</v>
       </c>
       <c r="Q28">
-        <v>2.291826068619442</v>
+        <v>2.446495104011667</v>
       </c>
       <c r="R28">
-        <v>2.291826068619442</v>
+        <v>22.018455936105</v>
       </c>
       <c r="S28">
-        <v>0.001768315893739061</v>
+        <v>0.001359311582586631</v>
       </c>
       <c r="T28">
-        <v>0.001768315893739061</v>
+        <v>0.001748163449376398</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>22.4013115348323</v>
+        <v>22.832077</v>
       </c>
       <c r="H29">
-        <v>22.4013115348323</v>
+        <v>68.49623099999999</v>
       </c>
       <c r="I29">
-        <v>0.03872592306179204</v>
+        <v>0.03120810544755168</v>
       </c>
       <c r="J29">
-        <v>0.03872592306179204</v>
+        <v>0.03217289111905</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.272288358326865</v>
+        <v>0.2805203333333333</v>
       </c>
       <c r="N29">
-        <v>0.272288358326865</v>
+        <v>0.841561</v>
       </c>
       <c r="O29">
-        <v>0.1215287235448195</v>
+        <v>0.1140294497139816</v>
       </c>
       <c r="P29">
-        <v>0.1215287235448195</v>
+        <v>0.1422516662860605</v>
       </c>
       <c r="Q29">
-        <v>6.099616342188151</v>
+        <v>6.404861850732332</v>
       </c>
       <c r="R29">
-        <v>6.099616342188151</v>
+        <v>57.64375665659099</v>
       </c>
       <c r="S29">
-        <v>0.004706311997794473</v>
+        <v>0.00355864309080023</v>
       </c>
       <c r="T29">
-        <v>0.004706311997794473</v>
+        <v>0.00457664737092486</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>22.4013115348323</v>
+        <v>22.832077</v>
       </c>
       <c r="H30">
-        <v>22.4013115348323</v>
+        <v>68.49623099999999</v>
       </c>
       <c r="I30">
-        <v>0.03872592306179204</v>
+        <v>0.03120810544755168</v>
       </c>
       <c r="J30">
-        <v>0.03872592306179204</v>
+        <v>0.03217289111905</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.197820158636817</v>
+        <v>0.1998293333333333</v>
       </c>
       <c r="N30">
-        <v>0.197820158636817</v>
+        <v>0.599488</v>
       </c>
       <c r="O30">
-        <v>0.08829180769346945</v>
+        <v>0.08122915243236724</v>
       </c>
       <c r="P30">
-        <v>0.08829180769346945</v>
+        <v>0.1013333162046457</v>
       </c>
       <c r="Q30">
-        <v>4.431431001493285</v>
+        <v>4.562518725525333</v>
       </c>
       <c r="R30">
-        <v>4.431431001493285</v>
+        <v>41.062668529728</v>
       </c>
       <c r="S30">
-        <v>0.003419181751723836</v>
+        <v>0.002535007954524566</v>
       </c>
       <c r="T30">
-        <v>0.003419181751723836</v>
+        <v>0.003260185748984331</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>22.4013115348323</v>
+        <v>22.832077</v>
       </c>
       <c r="H31">
-        <v>22.4013115348323</v>
+        <v>68.49623099999999</v>
       </c>
       <c r="I31">
-        <v>0.03872592306179204</v>
+        <v>0.03120810544755168</v>
       </c>
       <c r="J31">
-        <v>0.03872592306179204</v>
+        <v>0.03217289111905</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.686090437959895</v>
+        <v>0.7379140000000001</v>
       </c>
       <c r="N31">
-        <v>0.686090437959895</v>
+        <v>1.475828</v>
       </c>
       <c r="O31">
-        <v>0.3062183623050095</v>
+        <v>0.29995660691112</v>
       </c>
       <c r="P31">
-        <v>0.3062183623050095</v>
+        <v>0.2494637847424299</v>
       </c>
       <c r="Q31">
-        <v>15.36932564180914</v>
+        <v>16.848109267378</v>
       </c>
       <c r="R31">
-        <v>15.36932564180914</v>
+        <v>101.088655604268</v>
       </c>
       <c r="S31">
-        <v>0.01185858873873176</v>
+        <v>0.009361077418172045</v>
       </c>
       <c r="T31">
-        <v>0.01185858873873176</v>
+        <v>0.008025971184664325</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>21.7135627023294</v>
+        <v>25.082339</v>
       </c>
       <c r="H32">
-        <v>21.7135627023294</v>
+        <v>50.164678</v>
       </c>
       <c r="I32">
-        <v>0.037536987836641</v>
+        <v>0.03428388404538221</v>
       </c>
       <c r="J32">
-        <v>0.037536987836641</v>
+        <v>0.02356250409334498</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.68981440642683</v>
+        <v>0.7262925</v>
       </c>
       <c r="N32">
-        <v>0.68981440642683</v>
+        <v>1.452585</v>
       </c>
       <c r="O32">
-        <v>0.3078804573614734</v>
+        <v>0.2952325527432663</v>
       </c>
       <c r="P32">
-        <v>0.3078804573614734</v>
+        <v>0.2455349483544712</v>
       </c>
       <c r="Q32">
-        <v>14.97832836691911</v>
+        <v>18.2171146981575</v>
       </c>
       <c r="R32">
-        <v>14.97832836691911</v>
+        <v>72.86845879263001</v>
       </c>
       <c r="S32">
-        <v>0.01155690498311709</v>
+        <v>0.01012171860467233</v>
       </c>
       <c r="T32">
-        <v>0.01155690498311709</v>
+        <v>0.005785418225661475</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>21.7135627023294</v>
+        <v>25.082339</v>
       </c>
       <c r="H33">
-        <v>21.7135627023294</v>
+        <v>50.164678</v>
       </c>
       <c r="I33">
-        <v>0.037536987836641</v>
+        <v>0.03428388404538221</v>
       </c>
       <c r="J33">
-        <v>0.037536987836641</v>
+        <v>0.02356250409334498</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>0.292205734237438</v>
+        <v>0.4083613333333334</v>
       </c>
       <c r="N33">
-        <v>0.292205734237438</v>
+        <v>1.225084</v>
       </c>
       <c r="O33">
-        <v>0.130418318699191</v>
+        <v>0.1659958747772335</v>
       </c>
       <c r="P33">
-        <v>0.130418318699191</v>
+        <v>0.2070797486342548</v>
       </c>
       <c r="Q33">
-        <v>6.344827532344811</v>
+        <v>10.24265739715867</v>
       </c>
       <c r="R33">
-        <v>6.344827532344811</v>
+        <v>61.455944382952</v>
       </c>
       <c r="S33">
-        <v>0.004895510842686701</v>
+        <v>0.005690983322874461</v>
       </c>
       <c r="T33">
-        <v>0.004895510842686701</v>
+        <v>0.004879317424843478</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>21.7135627023294</v>
+        <v>25.082339</v>
       </c>
       <c r="H34">
-        <v>21.7135627023294</v>
+        <v>50.164678</v>
       </c>
       <c r="I34">
-        <v>0.037536987836641</v>
+        <v>0.03428388404538221</v>
       </c>
       <c r="J34">
-        <v>0.037536987836641</v>
+        <v>0.02356250409334498</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.102307673595621</v>
+        <v>0.1071516666666667</v>
       </c>
       <c r="N34">
-        <v>0.102307673595621</v>
+        <v>0.321455</v>
       </c>
       <c r="O34">
-        <v>0.0456623303960371</v>
+        <v>0.04355636342203116</v>
       </c>
       <c r="P34">
-        <v>0.0456623303960371</v>
+        <v>0.05433653577813798</v>
       </c>
       <c r="Q34">
-        <v>2.221464085547967</v>
+        <v>2.687614427748334</v>
       </c>
       <c r="R34">
-        <v>2.221464085547967</v>
+        <v>16.12568656649</v>
       </c>
       <c r="S34">
-        <v>0.001714026340668727</v>
+        <v>0.001493281312999444</v>
       </c>
       <c r="T34">
-        <v>0.001714026340668727</v>
+        <v>0.001280304846690562</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>21.7135627023294</v>
+        <v>25.082339</v>
       </c>
       <c r="H35">
-        <v>21.7135627023294</v>
+        <v>50.164678</v>
       </c>
       <c r="I35">
-        <v>0.037536987836641</v>
+        <v>0.03428388404538221</v>
       </c>
       <c r="J35">
-        <v>0.037536987836641</v>
+        <v>0.02356250409334498</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.272288358326865</v>
+        <v>0.2805203333333333</v>
       </c>
       <c r="N35">
-        <v>0.272288358326865</v>
+        <v>0.841561</v>
       </c>
       <c r="O35">
-        <v>0.1215287235448195</v>
+        <v>0.1140294497139816</v>
       </c>
       <c r="P35">
-        <v>0.1215287235448195</v>
+        <v>0.1422516662860605</v>
       </c>
       <c r="Q35">
-        <v>5.912350341644719</v>
+        <v>7.036106097059666</v>
       </c>
       <c r="R35">
-        <v>5.912350341644719</v>
+        <v>42.216636582358</v>
       </c>
       <c r="S35">
-        <v>0.004561822217504395</v>
+        <v>0.003909372431752887</v>
       </c>
       <c r="T35">
-        <v>0.004561822217504395</v>
+        <v>0.003351805469150444</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>21.7135627023294</v>
+        <v>25.082339</v>
       </c>
       <c r="H36">
-        <v>21.7135627023294</v>
+        <v>50.164678</v>
       </c>
       <c r="I36">
-        <v>0.037536987836641</v>
+        <v>0.03428388404538221</v>
       </c>
       <c r="J36">
-        <v>0.037536987836641</v>
+        <v>0.02356250409334498</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.197820158636817</v>
+        <v>0.1998293333333333</v>
       </c>
       <c r="N36">
-        <v>0.197820158636817</v>
+        <v>0.599488</v>
       </c>
       <c r="O36">
-        <v>0.08829180769346945</v>
+        <v>0.08122915243236724</v>
       </c>
       <c r="P36">
-        <v>0.08829180769346945</v>
+        <v>0.1013333162046457</v>
       </c>
       <c r="Q36">
-        <v>4.295380418345276</v>
+        <v>5.012187080810667</v>
       </c>
       <c r="R36">
-        <v>4.295380418345276</v>
+        <v>30.073122484864</v>
       </c>
       <c r="S36">
-        <v>0.003314208511464809</v>
+        <v>0.002784850843095955</v>
       </c>
       <c r="T36">
-        <v>0.003314208511464809</v>
+        <v>0.002387666677864185</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>21.7135627023294</v>
+        <v>25.082339</v>
       </c>
       <c r="H37">
-        <v>21.7135627023294</v>
+        <v>50.164678</v>
       </c>
       <c r="I37">
-        <v>0.037536987836641</v>
+        <v>0.03428388404538221</v>
       </c>
       <c r="J37">
-        <v>0.037536987836641</v>
+        <v>0.02356250409334498</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.686090437959895</v>
+        <v>0.7379140000000001</v>
       </c>
       <c r="N37">
-        <v>0.686090437959895</v>
+        <v>1.475828</v>
       </c>
       <c r="O37">
-        <v>0.3062183623050095</v>
+        <v>0.29995660691112</v>
       </c>
       <c r="P37">
-        <v>0.3062183623050095</v>
+        <v>0.2494637847424299</v>
       </c>
       <c r="Q37">
-        <v>14.89746774411082</v>
+        <v>18.508609100846</v>
       </c>
       <c r="R37">
-        <v>14.89746774411082</v>
+        <v>74.03443640338401</v>
       </c>
       <c r="S37">
-        <v>0.01149451494119927</v>
+        <v>0.01028367752998713</v>
       </c>
       <c r="T37">
-        <v>0.01149451494119927</v>
+        <v>0.005877991449134835</v>
       </c>
     </row>
   </sheetData>
